--- a/mtsp/Database.xlsx
+++ b/mtsp/Database.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shmily\Desktop\Project OR1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\Python\GA-for-mTSP\mtsp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A43E90-B88E-4FDD-AABD-ACED508EA205}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1D449717-601F-4DE7-A203-446190C52593}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{B7406424-EEFD-4B4A-96AF-6C55487B5D88}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5796" xr2:uid="{B7406424-EEFD-4B4A-96AF-6C55487B5D88}"/>
   </bookViews>
   <sheets>
     <sheet name="address" sheetId="3" r:id="rId1"/>
     <sheet name="results" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">address!$A$1:$I$692</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">address!$A$1:$I$693</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="89">
   <si>
     <t>STATUS</t>
   </si>
@@ -743,23 +743,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F487329-9130-4A9C-AA34-262DDE72A37F}">
-  <dimension ref="A1:AH30"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="71.88671875" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -813,851 +813,889 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
         <v>5.6</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>14.4</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>14.4</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
         <v>7.8</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>27.9</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>59.1</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>2720</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
         <v>8.5</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>26.2</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>61.2</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>1880</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
         <v>29.9</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>30</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>32.5</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>4430</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>19.3</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>30</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>620</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
         <v>35.1</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>35.700000000000003</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>42.1</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>9160</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
         <v>31</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>41.8</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>49.6</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>7750</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9">
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10">
         <v>6.1</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>27.9</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>31.3</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>860</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
         <v>15.7</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>20.5</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>32.700000000000003</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>1620</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>9</v>
-      </c>
-      <c r="G11">
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
         <v>15.1</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>16.899999999999999</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
         <v>41.3</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>43.2</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>45.4</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>4870</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>9</v>
-      </c>
-      <c r="G13">
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
         <v>15</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>16.7</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14">
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15">
         <v>16.100000000000001</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>20.6</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>32.700000000000003</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>1070</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15">
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>12.6</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>19.899999999999999</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16">
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17">
         <v>13.3</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>21.3</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>32.700000000000003</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>1350</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17">
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18">
         <v>16.2</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>17.600000000000001</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>41.5</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>580</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18">
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19">
         <v>10.7</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>15.4</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>18.5</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>460</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19">
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20">
         <v>16.100000000000001</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>16.2</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>39.9</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>890</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20">
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21">
         <v>15.2</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>32.299999999999997</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>41.8</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>3160</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21">
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22">
         <v>6</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>19.399999999999999</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>26.3</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22">
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23">
         <v>11.3</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>68.2</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>68.7</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>3560</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24">
         <v>31.6</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>35.700000000000003</v>
       </c>
-      <c r="H23">
+      <c r="H24">
         <v>45.9</v>
       </c>
-      <c r="I23">
+      <c r="I24">
         <v>3050</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>34</v>
       </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24">
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25">
         <v>26.4</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>41.5</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>59.4</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>18030</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25">
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26">
         <v>19.5</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <v>60.7</v>
       </c>
-      <c r="H25">
+      <c r="H26">
         <v>87.3</v>
       </c>
-      <c r="I25">
+      <c r="I26">
         <v>16460</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>39</v>
       </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26">
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27">
         <v>17.8</v>
       </c>
-      <c r="G26">
+      <c r="G27">
         <v>24.8</v>
       </c>
-      <c r="H26">
+      <c r="H27">
         <v>33.9</v>
       </c>
-      <c r="I26">
+      <c r="I27">
         <v>3280</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27">
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28">
         <v>22.2</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <v>27.2</v>
       </c>
-      <c r="H27">
+      <c r="H28">
         <v>45.9</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <v>2870</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28">
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29">
         <v>31.9</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>35.299999999999997</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>46.6</v>
       </c>
-      <c r="I28">
+      <c r="I29">
         <v>4210</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>13</v>
       </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29">
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30">
         <v>50.7</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>51.5</v>
       </c>
-      <c r="H29">
+      <c r="H30">
         <v>60</v>
       </c>
-      <c r="I29">
+      <c r="I30">
         <v>7880</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>23</v>
       </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30">
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31">
         <v>44.1</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <v>45.3</v>
       </c>
-      <c r="H30">
+      <c r="H31">
         <v>46.6</v>
       </c>
-      <c r="I30">
+      <c r="I31">
         <v>7740</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I692" xr:uid="{8CC238E5-672C-47D2-B6D6-DB3A5A388656}">
-    <sortState ref="A2:I30">
-      <sortCondition ref="C1:C692"/>
+  <autoFilter ref="A1:I693" xr:uid="{8CC238E5-672C-47D2-B6D6-DB3A5A388656}">
+    <sortState ref="A2:I31">
+      <sortCondition ref="C1:C693"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1668,22 +1706,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4235A8-EE2B-4C37-BCD1-3032284DE94F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>83</v>
@@ -1696,7 +1734,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>87</v>
       </c>
@@ -1711,7 +1749,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>70</v>
       </c>
@@ -1726,7 +1764,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>71</v>
       </c>
@@ -1741,7 +1779,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>72</v>
       </c>
@@ -1756,7 +1794,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>73</v>
       </c>
@@ -1771,7 +1809,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>74</v>
       </c>
@@ -1786,7 +1824,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>75</v>
       </c>
@@ -1801,7 +1839,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>76</v>
       </c>
@@ -1816,7 +1854,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>77</v>
       </c>
@@ -1831,7 +1869,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>78</v>
       </c>
@@ -1846,7 +1884,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>79</v>
       </c>
@@ -1857,7 +1895,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>80</v>
       </c>
@@ -1868,7 +1906,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>81</v>
       </c>
@@ -1877,7 +1915,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>82</v>
       </c>
@@ -1890,9 +1928,12 @@
       <c r="D15" s="14">
         <v>19353</v>
       </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="7">
+        <f>SUM(B15:D15)</f>
+        <v>64677</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>86</v>
       </c>
